--- a/fjl_20191023.xlsx
+++ b/fjl_20191023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_20191023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7686F571-8432-4300-B827-D4D85AD879DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441FAC4C-0732-4651-8473-DE4A9CB8CA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="375">
   <si>
     <t>品名</t>
   </si>
@@ -973,18 +973,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>空气开关</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>DZ47 C16 3P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>2常开2常闭红,</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1075,14 +1067,6 @@
   <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>不自锁,1常开1常闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不自锁,2常开</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>从动限位指示灯</t>
@@ -1361,10 +1345,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DZ47 C10 3P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>220-24V电源  200W</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1416,20 +1396,25 @@
     <t>NXB-10A-3P D型</t>
   </si>
   <si>
+    <t>NXB-16A-3P</t>
+  </si>
+  <si>
+    <t>NXB-40A-3P</t>
+  </si>
+  <si>
+    <t>NXB-63A 3P</t>
+  </si>
+  <si>
+    <t>NXB-5A 2P</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>NXB-16A-2P</t>
-  </si>
-  <si>
-    <t>NXB-16A-3P</t>
-  </si>
-  <si>
-    <t>NXB-40A-3P</t>
-  </si>
-  <si>
-    <t>NXB-63A 3P</t>
-  </si>
-  <si>
-    <t>NXB-5A 2P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NXB C10 3P</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1545,7 +1530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1605,6 +1590,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1949,22 +1940,22 @@
   </sheetPr>
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.90625" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" customWidth="1"/>
-    <col min="5" max="5" width="37.6328125" customWidth="1"/>
-    <col min="6" max="6" width="36.6328125" customWidth="1"/>
-    <col min="7" max="7" width="37.6328125" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="36.625" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1990,7 +1981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -2012,7 +2003,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2034,12 +2025,12 @@
         <v>454.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2054,7 +2045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>97</v>
       </c>
@@ -2076,23 +2067,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>97</v>
       </c>
@@ -2102,18 +2093,18 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -2130,7 +2121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2152,12 +2143,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2174,12 +2165,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2196,7 +2187,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -2218,7 +2209,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -2240,7 +2231,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -2262,12 +2253,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -2277,14 +2268,14 @@
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1">
@@ -2296,27 +2287,27 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2326,7 +2317,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>94</v>
       </c>
@@ -2348,7 +2339,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>94</v>
       </c>
@@ -2370,12 +2361,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -2392,12 +2383,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -2414,7 +2405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
@@ -2436,12 +2427,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -2454,12 +2445,12 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -2472,7 +2463,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2482,7 +2473,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>94</v>
       </c>
@@ -2504,12 +2495,12 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -2526,7 +2517,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
@@ -2548,12 +2539,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C30" s="1">
         <v>1</v>
@@ -2566,7 +2557,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2576,7 +2567,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2586,7 +2577,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
@@ -2608,7 +2599,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
@@ -2630,12 +2621,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -2652,18 +2643,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C36" s="1">
         <v>1</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
@@ -2674,7 +2665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2696,7 +2687,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>27</v>
       </c>
@@ -2707,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
@@ -2718,25 +2709,25 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="1"/>
       <c r="B40" s="3"/>
       <c r="C40" s="1"/>
@@ -2746,7 +2737,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="1"/>
@@ -2756,7 +2747,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -2778,7 +2769,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
@@ -2793,19 +2784,19 @@
       </c>
       <c r="E43" s="1"/>
       <c r="F43" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C44" s="1">
         <v>5</v>
@@ -2815,19 +2806,19 @@
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C45" s="1">
         <v>3</v>
@@ -2837,19 +2828,19 @@
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C46" s="1">
         <v>5</v>
@@ -2859,19 +2850,19 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C47" s="1">
         <v>3</v>
@@ -2881,25 +2872,25 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C48" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="1"/>
       <c r="B49" s="3"/>
       <c r="C49" s="1"/>
@@ -2909,7 +2900,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2919,12 +2910,12 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C51" s="1">
         <v>5</v>
@@ -2941,12 +2932,12 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="C52" s="1">
         <v>2</v>
@@ -2963,12 +2954,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C53" s="1">
         <v>2</v>
@@ -2985,12 +2976,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C54" s="1">
         <v>2</v>
@@ -3007,73 +2998,73 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C55" s="1">
         <v>1</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H55" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="H56" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C57" s="1">
         <v>1</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H57" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -3083,7 +3074,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
         <v>94</v>
       </c>
@@ -3094,13 +3085,13 @@
         <v>1</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
         <v>94</v>
       </c>
@@ -3111,13 +3102,13 @@
         <v>1</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>34</v>
       </c>
@@ -3128,7 +3119,7 @@
         <v>6</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
@@ -3137,46 +3128,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A65" s="18" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C65" s="19">
         <v>6</v>
       </c>
       <c r="D65" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="E65" s="8" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>366</v>
-      </c>
       <c r="B66" s="8" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C66" s="19">
         <v>1</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="18" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C67" s="19">
         <v>1</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3194,13 +3185,13 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D1" s="7" t="s">
         <v>103</v>
       </c>
@@ -3209,7 +3200,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D2" s="3" t="s">
         <v>102</v>
       </c>
@@ -3217,7 +3208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D3" s="5" t="s">
         <v>104</v>
       </c>
@@ -3226,7 +3217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D4" s="3" t="s">
         <v>101</v>
       </c>
@@ -3234,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D5" s="5" t="s">
         <v>103</v>
       </c>
@@ -3243,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D6" s="3" t="s">
         <v>102</v>
       </c>
@@ -3251,7 +3242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>104</v>
       </c>
@@ -3260,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3268,7 +3259,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D9" s="5" t="s">
         <v>68</v>
       </c>
@@ -3277,7 +3268,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3285,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D11" s="5" t="s">
         <v>91</v>
       </c>
@@ -3294,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3302,7 +3293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D13" s="5" t="s">
         <v>90</v>
       </c>
@@ -3311,7 +3302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
@@ -3319,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D15" s="5" t="s">
         <v>67</v>
       </c>
@@ -3328,7 +3319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3336,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D17" s="5" t="s">
         <v>70</v>
       </c>
@@ -3345,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D18" s="3" t="s">
         <v>92</v>
       </c>
@@ -3353,7 +3344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D19" s="3" t="s">
         <v>92</v>
       </c>
@@ -3361,7 +3352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D20" s="1" t="s">
         <v>92</v>
       </c>
@@ -3369,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D21" s="1" t="s">
         <v>92</v>
       </c>
@@ -3377,7 +3368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D22" s="1" t="s">
         <v>92</v>
       </c>
@@ -3385,7 +3376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
@@ -3393,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D24" s="5" t="s">
         <v>93</v>
       </c>
@@ -3402,7 +3393,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D25" s="3" t="s">
         <v>58</v>
       </c>
@@ -3410,7 +3401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
@@ -3418,7 +3409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3426,7 +3417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D28" s="1" t="s">
         <v>51</v>
       </c>
@@ -3434,7 +3425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D29" s="1" t="s">
         <v>50</v>
       </c>
@@ -3442,7 +3433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D30" s="1" t="s">
         <v>50</v>
       </c>
@@ -3450,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D31" s="3" t="s">
         <v>57</v>
       </c>
@@ -3458,7 +3449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D32" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,7 +3457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D33" s="5" t="s">
         <v>99</v>
       </c>
@@ -3475,7 +3466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3483,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D35" s="5" t="s">
         <v>71</v>
       </c>
@@ -3492,7 +3483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D36" s="3" t="s">
         <v>63</v>
       </c>
@@ -3500,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,7 +3499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D38" s="5" t="s">
         <v>73</v>
       </c>
@@ -3517,7 +3508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D39" s="1" t="s">
         <v>52</v>
       </c>
@@ -3525,7 +3516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D40" s="5" t="s">
         <v>72</v>
       </c>
@@ -3534,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D41" s="1" t="s">
         <v>35</v>
       </c>
@@ -3542,7 +3533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3550,7 +3541,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D43" s="5" t="s">
         <v>81</v>
       </c>
@@ -3559,7 +3550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D44" s="3" t="s">
         <v>56</v>
       </c>
@@ -3567,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D45" s="3" t="s">
         <v>56</v>
       </c>
@@ -3575,7 +3566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D46" s="5" t="s">
         <v>77</v>
       </c>
@@ -3584,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3592,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D48" s="5" t="s">
         <v>85</v>
       </c>
@@ -3601,7 +3592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3609,7 +3600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D50" s="5" t="s">
         <v>86</v>
       </c>
@@ -3618,7 +3609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D51" s="1" t="s">
         <v>38</v>
       </c>
@@ -3626,7 +3617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D52" s="5" t="s">
         <v>84</v>
       </c>
@@ -3635,7 +3626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D53" s="1" t="s">
         <v>33</v>
       </c>
@@ -3643,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D54" s="1" t="s">
         <v>33</v>
       </c>
@@ -3651,7 +3642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D55" s="5" t="s">
         <v>80</v>
       </c>
@@ -3660,7 +3651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
@@ -3668,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
@@ -3676,7 +3667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
@@ -3684,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D59" s="5" t="s">
         <v>75</v>
       </c>
@@ -3693,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D60" s="1" t="s">
         <v>37</v>
       </c>
@@ -3701,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D61" s="5" t="s">
         <v>82</v>
       </c>
@@ -3710,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D62" s="1" t="s">
         <v>31</v>
       </c>
@@ -3718,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D63" s="5" t="s">
         <v>78</v>
       </c>
@@ -3727,7 +3718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D64" s="3" t="s">
         <v>61</v>
       </c>
@@ -3735,7 +3726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D65" s="3" t="s">
         <v>61</v>
       </c>
@@ -3743,7 +3734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D66" s="5" t="s">
         <v>83</v>
       </c>
@@ -3752,7 +3743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D67" s="3" t="s">
         <v>28</v>
       </c>
@@ -3760,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D68" s="3" t="s">
         <v>28</v>
       </c>
@@ -3768,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D69" s="3" t="s">
         <v>28</v>
       </c>
@@ -3776,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D70" s="1" t="s">
         <v>28</v>
       </c>
@@ -3784,7 +3775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D71" s="5" t="s">
         <v>76</v>
       </c>
@@ -3793,7 +3784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D72" s="1" t="s">
         <v>49</v>
       </c>
@@ -3801,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D73" s="5" t="s">
         <v>79</v>
       </c>
@@ -3810,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D74" s="1" t="s">
         <v>42</v>
       </c>
@@ -3818,7 +3809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D75" s="5" t="s">
         <v>87</v>
       </c>
@@ -3827,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D76" s="3" t="s">
         <v>60</v>
       </c>
@@ -3835,7 +3826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D77" s="3" t="s">
         <v>60</v>
       </c>
@@ -3843,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D78" s="5" t="s">
         <v>69</v>
       </c>
@@ -3852,7 +3843,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D79" s="3" t="s">
         <v>95</v>
       </c>
@@ -3860,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D80" s="5" t="s">
         <v>100</v>
       </c>
@@ -3869,7 +3860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
@@ -3877,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D82" s="5" t="s">
         <v>64</v>
       </c>
@@ -3886,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
@@ -3894,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D84" s="5" t="s">
         <v>66</v>
       </c>
@@ -3903,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D85" s="1" t="s">
         <v>16</v>
       </c>
@@ -3911,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D86" s="5" t="s">
         <v>65</v>
       </c>
@@ -3920,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
@@ -3928,7 +3919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D88" s="5" t="s">
         <v>74</v>
       </c>
@@ -3937,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D89" s="3" t="s">
         <v>59</v>
       </c>
@@ -3945,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D90" s="3" t="s">
         <v>59</v>
       </c>
@@ -3953,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D91" s="3" t="s">
         <v>59</v>
       </c>
@@ -3961,7 +3952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D92" s="3" t="s">
         <v>59</v>
       </c>
@@ -3969,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D93" s="3" t="s">
         <v>59</v>
       </c>
@@ -3977,7 +3968,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D94" s="3" t="s">
         <v>59</v>
       </c>
@@ -3985,7 +3976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D95" s="3" t="s">
         <v>59</v>
       </c>
@@ -3993,7 +3984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D96" s="3" t="s">
         <v>59</v>
       </c>
@@ -4001,7 +3992,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D97" s="3" t="s">
         <v>59</v>
       </c>
@@ -4009,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D98" s="3" t="s">
         <v>59</v>
       </c>
@@ -4017,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D99" s="5" t="s">
         <v>88</v>
       </c>
@@ -4026,7 +4017,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D100" s="3" t="s">
         <v>62</v>
       </c>
@@ -4034,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D101" s="3" t="s">
         <v>62</v>
       </c>
@@ -4042,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.15">
       <c r="D102" s="5" t="s">
         <v>89</v>
       </c>
@@ -4065,13 +4056,13 @@
       <selection activeCell="D26" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>132</v>
       </c>
@@ -4079,7 +4070,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>133</v>
       </c>
@@ -4087,7 +4078,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
         <v>134</v>
       </c>
@@ -4095,7 +4086,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" s="6" t="s">
         <v>144</v>
       </c>
@@ -4103,7 +4094,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>145</v>
       </c>
@@ -4111,7 +4102,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>98</v>
       </c>
@@ -4119,7 +4110,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
@@ -4127,7 +4118,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
@@ -4135,7 +4126,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B11" s="8" t="s">
         <v>130</v>
       </c>
@@ -4143,7 +4134,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B12" s="8" t="s">
         <v>154</v>
       </c>
@@ -4151,7 +4142,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B13" s="8" t="s">
         <v>135</v>
       </c>
@@ -4159,7 +4150,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B14" s="8" t="s">
         <v>131</v>
       </c>
@@ -4167,7 +4158,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B15" s="9" t="s">
         <v>139</v>
       </c>
@@ -4175,7 +4166,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B16" s="9" t="s">
         <v>140</v>
       </c>
@@ -4183,7 +4174,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="9" t="s">
         <v>141</v>
       </c>
@@ -4191,7 +4182,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="9" t="s">
         <v>142</v>
       </c>
@@ -4199,7 +4190,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="9" t="s">
         <v>143</v>
       </c>
@@ -4207,47 +4198,47 @@
         <v>138</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="8" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="8" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="8" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" s="8" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" s="8" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -4268,493 +4259,493 @@
       <selection activeCell="M37" sqref="M37:O57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="29.26953125" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="29.25" customWidth="1"/>
+    <col min="6" max="6" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="8">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>6</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E12">
         <v>8</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E15">
         <v>11</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E16">
         <v>12</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E17">
         <v>13</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>323</v>
-      </c>
-      <c r="G37" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="H37" s="17"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>339</v>
+      </c>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>324</v>
-      </c>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>325</v>
-      </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
-      </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
-      </c>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E42">
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>328</v>
-      </c>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E43">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
-      </c>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>330</v>
-      </c>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E45">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>331</v>
-      </c>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
-      </c>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E47">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>333</v>
-      </c>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E48">
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>334</v>
-      </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E49">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>335</v>
-      </c>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E50">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>336</v>
-      </c>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E51">
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>337</v>
-      </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E52">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>338</v>
-      </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E53">
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>339</v>
-      </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>335</v>
+      </c>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>18</v>
       </c>
@@ -4762,12 +4753,12 @@
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>340</v>
-      </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>19</v>
       </c>
@@ -4775,32 +4766,32 @@
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>341</v>
-      </c>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E56">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>342</v>
-      </c>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+        <v>338</v>
+      </c>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4820,12 +4811,12 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3" s="8" t="s">
         <v>146</v>
       </c>
@@ -4833,7 +4824,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>148</v>
       </c>
@@ -4841,7 +4832,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
         <v>150</v>
       </c>
@@ -4849,7 +4840,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6" s="8" t="s">
         <v>151</v>
       </c>
@@ -4857,7 +4848,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7" s="8" t="s">
         <v>152</v>
       </c>
@@ -4865,7 +4856,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8" s="8" t="s">
         <v>153</v>
       </c>
@@ -4883,22 +4874,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13FF55E-BEB2-41A1-BD4E-4B1DA37AE321}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>162</v>
       </c>
@@ -4912,7 +4903,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>166</v>
       </c>
@@ -4926,7 +4917,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
         <v>170</v>
       </c>
@@ -4940,7 +4931,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
         <v>172</v>
       </c>
@@ -4954,10 +4945,10 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10" t="s">
         <v>175</v>
       </c>
@@ -4971,7 +4962,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10" t="s">
         <v>179</v>
       </c>
@@ -4985,7 +4976,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10" t="s">
         <v>182</v>
       </c>
@@ -4999,7 +4990,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="10" t="s">
         <v>186</v>
       </c>
@@ -5013,7 +5004,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="10" t="s">
         <v>189</v>
       </c>
@@ -5027,7 +5018,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="10" t="s">
         <v>192</v>
       </c>
@@ -5041,7 +5032,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="10" t="s">
         <v>195</v>
       </c>
@@ -5055,7 +5046,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="10" t="s">
         <v>198</v>
       </c>
@@ -5066,16 +5057,16 @@
         <v>196</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>199</v>
       </c>
@@ -5089,7 +5080,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>203</v>
       </c>
@@ -5103,7 +5094,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10" t="s">
         <v>205</v>
       </c>
@@ -5117,7 +5108,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="10" t="s">
         <v>207</v>
       </c>
@@ -5131,7 +5122,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="10" t="s">
         <v>209</v>
       </c>
@@ -5145,7 +5136,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="10" t="s">
         <v>211</v>
       </c>
@@ -5159,7 +5150,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="10" t="s">
         <v>213</v>
       </c>
@@ -5173,7 +5164,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="10" t="s">
         <v>216</v>
       </c>
@@ -5187,10 +5178,10 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="10" t="s">
         <v>218</v>
       </c>
@@ -5198,7 +5189,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="10" t="s">
         <v>220</v>
       </c>
@@ -5206,7 +5197,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="10" t="s">
         <v>222</v>
       </c>
@@ -5220,7 +5211,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="10" t="s">
         <v>226</v>
       </c>
@@ -5234,7 +5225,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10" t="s">
         <v>230</v>
       </c>
@@ -5245,7 +5236,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="10" t="s">
         <v>233</v>
       </c>
@@ -5256,7 +5247,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="10" t="s">
         <v>235</v>
       </c>
@@ -5264,7 +5255,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="10" t="s">
         <v>237</v>
       </c>
@@ -5278,7 +5269,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="10" t="s">
         <v>240</v>
       </c>
@@ -5292,7 +5283,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="10" t="s">
         <v>243</v>
       </c>
@@ -5300,38 +5291,38 @@
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="10"/>
       <c r="B35" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B37" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="15" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B38" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -5343,84 +5334,84 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF893BE-78B0-4230-AFD6-638AD91D5B68}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="15.125" customWidth="1"/>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="17"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="17" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="17" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>166</v>
       </c>
       <c r="B3" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>273</v>
+      <c r="C3" t="s">
+        <v>168</v>
       </c>
       <c r="D3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
         <v>170</v>
       </c>
       <c r="B4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>273</v>
+      <c r="C4" t="s">
+        <v>168</v>
       </c>
       <c r="D4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="17" t="s">
         <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>167</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>274</v>
+      <c r="C5" t="s">
+        <v>173</v>
       </c>
       <c r="D5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>175</v>
       </c>
       <c r="B7" t="s">
@@ -5433,8 +5424,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>179</v>
       </c>
       <c r="B8" t="s">
@@ -5447,8 +5438,8 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>182</v>
       </c>
       <c r="B9" t="s">
@@ -5461,8 +5452,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
         <v>186</v>
       </c>
       <c r="B10" t="s">
@@ -5475,8 +5466,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="17" t="s">
         <v>189</v>
       </c>
       <c r="B11" t="s">
@@ -5489,8 +5480,8 @@
         <v>191</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="17" t="s">
         <v>192</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -5503,8 +5494,8 @@
         <v>194</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="17" t="s">
         <v>195</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -5517,8 +5508,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="17" t="s">
         <v>198</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5527,18 +5518,18 @@
       <c r="C14" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="D14" s="14" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="17" t="s">
         <v>199</v>
       </c>
       <c r="B16" t="s">
@@ -5551,8 +5542,8 @@
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="17" t="s">
         <v>203</v>
       </c>
       <c r="B17" t="s">
@@ -5565,8 +5556,8 @@
         <v>204</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="17" t="s">
         <v>205</v>
       </c>
       <c r="B18" t="s">
@@ -5579,8 +5570,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="17" t="s">
         <v>207</v>
       </c>
       <c r="B19" t="s">
@@ -5593,8 +5584,8 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="17" t="s">
         <v>209</v>
       </c>
       <c r="B20" t="s">
@@ -5607,8 +5598,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="17" t="s">
         <v>211</v>
       </c>
       <c r="B21" t="s">
@@ -5621,8 +5612,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="17" t="s">
         <v>213</v>
       </c>
       <c r="B22" t="s">
@@ -5635,8 +5626,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="17" t="s">
         <v>216</v>
       </c>
       <c r="B23" t="s">
@@ -5649,18 +5640,65 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B25" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B26" t="s">
+        <v>231</v>
+      </c>
+      <c r="C26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="B27" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
         <v>247</v>
       </c>
-      <c r="B25" t="s">
-        <v>248</v>
-      </c>
-      <c r="C25" t="s">
-        <v>249</v>
+      <c r="C28" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" t="s">
+        <v>247</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>

--- a/fjl_20191023.xlsx
+++ b/fjl_20191023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\worktop\fjl_20191023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441FAC4C-0732-4651-8473-DE4A9CB8CA61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2A38E9-D293-4376-90CD-F57B5C40E099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -166,31 +166,31 @@
   </si>
   <si>
     <t xml:space="preserve">QFZ </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>D1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LQ1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LQ2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LQ3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>FR02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DZ47-60 3P C40A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CJX2-220V 1810  </t>
@@ -209,11 +209,11 @@
   </si>
   <si>
     <t>Bh-0.66  300/5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DZ47-15A-3P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -241,31 +241,31 @@
       </rPr>
       <t xml:space="preserve">10  </t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CJX2-220V 1810</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NR2-93/Z23-32A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JZX-22F(D)/4Z-220V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>DZ47-40A-3P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NR2-93/Z37-50A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CJX2-220V 4011  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ND16-220V 红 汇总</t>
@@ -359,23 +359,23 @@
   </si>
   <si>
     <t>接触器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JZX-22F(D)/4Z-24V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>启动按钮绿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>停止按钮绿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>急停按钮（蘑菇头）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CJX2-220V 1810 汇总</t>
@@ -385,11 +385,11 @@
   </si>
   <si>
     <t>2常开2常闭红</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2常开2常闭绿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2常开2常闭红 汇总</t>
@@ -399,706 +399,689 @@
   </si>
   <si>
     <t xml:space="preserve">NR2-25/Z 12-18A </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NR2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-25/Z 5.5-8A</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NR2-36/Z 23-32A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QF65-QF66</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QF67-QF68</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KMA2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QFA3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QFA2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KMB1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KME1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QFE1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QFE2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KME2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FRE1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KMA3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XJ3-G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SB1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SB2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SB3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>M2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BH1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JE1-JE8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QF50-QF54</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QF60-QF61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>触摸屏</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>调速电位器</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>A相电源指示灯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>B相电源指示灯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C相电源指示灯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>金工热能表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>总控</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>热风循环</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>悬挂链</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>转速表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>链条启动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>链条停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>链条运行指示灯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>链条外部即停指示灯</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统启动按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>系统停止按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>温控表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>烘道热能水循环</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>手动/自动开关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>悬挂链</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正/反转开关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主动限位开关指示灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从动限位开关指示灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>调速电位器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>声光报警指示灯</t>
   </si>
   <si>
     <t>热风循环燃烧机控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>热风循环风机控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FRB1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QFB1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JZX-24VF(D)/4Z-24V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CJX2-220V 2510 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KM11，KM12，KM13，KM15，KM16，KM17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>编号</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>器件名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>规格</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>功能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SB1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LAY2，不自锁,1常开1常闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>启动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SB2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>停止</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>SB3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>LAY2，不自锁,2常开</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>复位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>N1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拨动开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2常开</t>
   </si>
   <si>
     <t>联动/手动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>N2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2常开，</t>
   </si>
   <si>
     <t>正转/反转</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>L1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ND16，24V，绿</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>运行指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>L2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ND16，24V  ,黄</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>报警指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>L3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ND16，220V，红</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电源指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>L4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ND16，24V，白</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>外部即停指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>L5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ND16，24V，红</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主动限位指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>L6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>J1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>继电器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>24V，4常开4常闭</t>
   </si>
   <si>
     <t>变频器启动</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>J2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>联动/手动控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>J3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>反转/正转控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>j4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>报警控制</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>J5</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>外部急停</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>j6</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主动限位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>j7</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>24V，4常开4常闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>从动限位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>j8</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>启动</t>
   </si>
   <si>
     <t>Z1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主动变频器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Z2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>从动变频器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>24V电源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>220V 24V 50W</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>S</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接线端子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>TD1520</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>15A ,25节</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>W1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主动电位器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>碳膜，10K</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>W2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>从动电位器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>W3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>拉绳电位器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>T1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>主动限位开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>T2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>从动限位开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>常闭</t>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>速度表</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>按钮标字框</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>电箱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>空气开关</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>2常开2常闭红,</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bh-0.66 400/5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CJ20-400A  380V</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>KMZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>接线端子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TD-20A/3P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TD-15A/7P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TD-15A/5P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>热水炉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TD-15A/22P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">KM10 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QF14，QF15，QF16，QF18，QF19，QF20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>QF13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NR2-25/Z 9-13A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>JR9,JR10,JR11，JR13,JR14,JR15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NR2-25/Z 12-18A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">JR8 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TD-20A   30P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5个单相16A空开+2个三相16A空开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TD-60A/12P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2个三相40A空开+2个三相60A空开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TD-15A/10P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>从动限位指示灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>启动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>停止</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>防尘</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>霍宇温控表1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>霍宇温控表2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>霍宇温控表3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>杨志甫部分</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>系统启动</t>
@@ -1282,103 +1265,103 @@
   </si>
   <si>
     <t>oqc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前处理-水洗1输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前处理-水洗2输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前处理-水洗3输出出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前处理-水洗4输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前处理-热水洗输出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>悬持链电机保护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>400A接触器控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4常开4常闭，带自锁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">42L6 400A </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2个单相16A空开+2个三相16A空开</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TD-10A/16P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>空气开关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>控制回路控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">QFY </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>D2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>220-24V电源  200W</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>粉尘控制</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>喷房电源1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>喷房电源2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二常开二常闭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>24V指示灯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>红色</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>选择开关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NXB-32A-3P D型</t>
@@ -1406,34 +1389,30 @@
   </si>
   <si>
     <t>NXB-5A 2P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NXB-16A-2P</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NXB C10 3P</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NR2-25/Z 5.5-8A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1478,6 +1457,22 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1537,28 +1532,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1567,35 +1559,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1938,40 +1933,40 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection sqref="A1:F68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="12.875" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
-    <col min="5" max="5" width="37.625" customWidth="1"/>
-    <col min="6" max="6" width="36.625" customWidth="1"/>
-    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="25.453125" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="5" width="37.6328125" customWidth="1"/>
+    <col min="6" max="6" width="36.6328125" customWidth="1"/>
+    <col min="7" max="7" width="37.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1981,21 +1976,21 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="17">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="1"/>
@@ -2003,21 +1998,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="1"/>
@@ -2025,183 +2020,184 @@
         <v>454.3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B4" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>121</v>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="H4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="3" t="s">
-        <v>122</v>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>121</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="B6" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F6" s="17"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="17"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C8" s="1">
+      <c r="B8" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="C8" s="17">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3" t="s">
-        <v>123</v>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17" t="s">
+        <v>122</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="17">
+        <v>1</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="13" t="s">
-        <v>124</v>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19" t="s">
+        <v>123</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="B10" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="13" t="s">
-        <v>125</v>
+      <c r="E10" s="17"/>
+      <c r="F10" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="17">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="13" t="s">
-        <v>126</v>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19" t="s">
+        <v>125</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="18" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="1"/>
@@ -2209,21 +2205,21 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
         <v>47</v>
       </c>
       <c r="G13" s="1"/>
@@ -2231,21 +2227,21 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="1"/>
@@ -2253,173 +2249,173 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
         <v>250</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+    <row r="16" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17" t="s">
         <v>352</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+    <row r="18" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1" t="s">
-        <v>119</v>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>118</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1" t="s">
-        <v>110</v>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>109</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1" t="s">
-        <v>112</v>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="C22" s="17">
+        <v>1</v>
+      </c>
+      <c r="D22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>111</v>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1" t="s">
+      <c r="B23" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="17">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
         <v>48</v>
       </c>
       <c r="G23" s="1"/>
@@ -2427,751 +2423,802 @@
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B24" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C24" s="1">
-        <v>1</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1" t="s">
+    <row r="25" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+    <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1" t="s">
-        <v>113</v>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B28" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3" t="s">
-        <v>158</v>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3" t="s">
-        <v>157</v>
+      <c r="B29" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>156</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+    <row r="30" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
+    <row r="31" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1" t="s">
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1" t="s">
-        <v>117</v>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>114</v>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>113</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C35" s="1">
-        <v>1</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="B35" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>115</v>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>114</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>116</v>
+      <c r="B36" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C37" s="1">
+      <c r="B37" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C37" s="17">
         <v>6</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1" t="s">
-        <v>127</v>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17" t="s">
+        <v>126</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1" t="s">
-        <v>118</v>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C39" s="1">
-        <v>1</v>
-      </c>
-      <c r="D39" s="3" t="s">
+    <row r="39" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="B39" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+    <row r="40" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+    <row r="41" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="1">
+      <c r="C42" s="17">
         <v>5</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="3" t="s">
-        <v>161</v>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>160</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1">
         <v>29.5</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C43" s="1">
+      <c r="B43" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C43" s="17">
         <v>3</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="3" t="s">
-        <v>258</v>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17" t="s">
+        <v>257</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="C44" s="1">
+      <c r="B44" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C44" s="17">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="3" t="s">
-        <v>259</v>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
+        <v>258</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="C45" s="1">
+      <c r="B45" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C45" s="17">
         <v>3</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="3" t="s">
-        <v>260</v>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17" t="s">
+        <v>259</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="C46" s="17">
+        <v>5</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17" t="s">
         <v>261</v>
-      </c>
-      <c r="C46" s="1">
-        <v>5</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="3" t="s">
-        <v>262</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="17">
+        <v>3</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="C47" s="1">
-        <v>3</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A48" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C48" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A49" s="1"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+    <row r="48" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="19">
+        <v>1</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+    <row r="50" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="C51" s="1">
+      <c r="B51" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" s="17">
         <v>5</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="3" t="s">
-        <v>128</v>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
+        <v>127</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1">
         <v>13.5</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="C52" s="1">
+      <c r="B52" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" s="17">
         <v>2</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="3" t="s">
-        <v>129</v>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17" t="s">
+        <v>128</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="C53" s="1">
+      <c r="B53" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53" s="17">
         <v>2</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1" t="s">
-        <v>108</v>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17" t="s">
+        <v>107</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C54" s="1">
+      <c r="B54" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="C54" s="17">
         <v>2</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1" t="s">
-        <v>109</v>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="3" t="s">
+      <c r="B55" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="3" t="s">
-        <v>266</v>
+      <c r="C55" s="17">
+        <v>1</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="F55" s="17"/>
+      <c r="G55" s="2" t="s">
+        <v>265</v>
       </c>
       <c r="H55" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="C56" s="1">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="F56" s="2"/>
-      <c r="G56" s="3" t="s">
-        <v>268</v>
+      <c r="F56" s="20"/>
+      <c r="G56" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="H56" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="3" t="s">
-        <v>270</v>
+      <c r="F57" s="17"/>
+      <c r="G57" s="2" t="s">
+        <v>269</v>
       </c>
       <c r="H57" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A58" s="1"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
+    <row r="58" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A62" s="3" t="s">
+    <row r="59" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C62" s="1">
-        <v>1</v>
-      </c>
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="17">
+        <v>1</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E62" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C63" s="17">
+        <v>1</v>
+      </c>
+      <c r="D63" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="E63" s="21" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C63" s="1">
-        <v>1</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="1">
+      <c r="B64" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="17">
         <v>6</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
+      <c r="D64" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="18" t="s">
+    <row r="65" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="B65" s="18"/>
+      <c r="C65" s="21">
+        <v>6</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="C65" s="19">
-        <v>6</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" s="18" t="s">
+      <c r="B66" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="C66" s="21">
+        <v>1</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
         <v>362</v>
       </c>
-      <c r="C66" s="19">
-        <v>1</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" s="18" t="s">
-        <v>363</v>
-      </c>
-      <c r="C67" s="19">
-        <v>1</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>360</v>
-      </c>
+      <c r="B67" s="18"/>
+      <c r="C67" s="21">
+        <v>1</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="E67" s="18" t="s">
+        <v>359</v>
+      </c>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="45" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -3185,31 +3232,31 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="23.5" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="e">
+      <c r="E1" s="3" t="e">
         <f>SUBTOTAL(9,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="2" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D2" s="3" t="s">
+    <row r="2" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D3" s="5" t="s">
+    <row r="3" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E3" s="1">
@@ -3217,16 +3264,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D4" s="3" t="s">
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
         <v>101</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D5" s="5" t="s">
+    <row r="5" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E5" s="1">
@@ -3234,16 +3281,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
         <v>102</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D7" s="5" t="s">
+    <row r="7" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="4" t="s">
         <v>104</v>
       </c>
       <c r="E7" s="1">
@@ -3251,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3259,8 +3306,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D9" s="5" t="s">
+    <row r="9" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="1">
@@ -3268,7 +3315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -3276,8 +3323,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D11" s="5" t="s">
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E11" s="1">
@@ -3285,7 +3332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
@@ -3293,8 +3340,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D13" s="5" t="s">
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="4" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="1">
@@ -3302,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D14" s="1" t="s">
         <v>55</v>
       </c>
@@ -3310,8 +3357,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D15" s="5" t="s">
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="1">
@@ -3319,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
@@ -3327,8 +3374,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D17" s="5" t="s">
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E17" s="1">
@@ -3336,23 +3383,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D18" s="3" t="s">
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D19" s="3" t="s">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="2" t="s">
         <v>92</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>92</v>
       </c>
@@ -3360,7 +3407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D21" s="1" t="s">
         <v>92</v>
       </c>
@@ -3368,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D22" s="1" t="s">
         <v>92</v>
       </c>
@@ -3376,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>92</v>
       </c>
@@ -3384,8 +3431,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D24" s="5" t="s">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E24" s="1">
@@ -3393,15 +3440,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D25" s="3" t="s">
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>51</v>
       </c>
@@ -3409,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3417,7 +3464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>51</v>
       </c>
@@ -3425,7 +3472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>50</v>
       </c>
@@ -3433,7 +3480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>50</v>
       </c>
@@ -3441,15 +3488,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D31" s="3" t="s">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>50</v>
       </c>
@@ -3457,8 +3504,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D33" s="5" t="s">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E33" s="1">
@@ -3466,7 +3513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3474,8 +3521,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D35" s="5" t="s">
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
         <v>71</v>
       </c>
       <c r="E35" s="1">
@@ -3483,15 +3530,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D36" s="3" t="s">
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D37" s="1" t="s">
         <v>53</v>
       </c>
@@ -3499,8 +3546,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D38" s="5" t="s">
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E38" s="1">
@@ -3508,7 +3555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D39" s="1" t="s">
         <v>52</v>
       </c>
@@ -3516,8 +3563,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D40" s="5" t="s">
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E40" s="1">
@@ -3525,7 +3572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D41" s="1" t="s">
         <v>35</v>
       </c>
@@ -3533,7 +3580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3541,8 +3588,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D43" s="5" t="s">
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E43" s="1">
@@ -3550,24 +3597,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D44" s="3" t="s">
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D45" s="3" t="s">
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D46" s="5" t="s">
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E46" s="1">
@@ -3575,7 +3622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3583,8 +3630,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D48" s="5" t="s">
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E48" s="1">
@@ -3592,7 +3639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>41</v>
       </c>
@@ -3600,8 +3647,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D50" s="5" t="s">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D50" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E50" s="1">
@@ -3609,7 +3656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
         <v>38</v>
       </c>
@@ -3617,8 +3664,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D52" s="5" t="s">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E52" s="1">
@@ -3626,7 +3673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" s="1" t="s">
         <v>33</v>
       </c>
@@ -3634,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54" s="1" t="s">
         <v>33</v>
       </c>
@@ -3642,8 +3689,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D55" s="5" t="s">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D55" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E55" s="1">
@@ -3651,7 +3698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D56" s="1" t="s">
         <v>25</v>
       </c>
@@ -3659,7 +3706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D57" s="1" t="s">
         <v>25</v>
       </c>
@@ -3667,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D58" s="1" t="s">
         <v>25</v>
       </c>
@@ -3675,8 +3722,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D59" s="5" t="s">
+    <row r="59" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D59" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E59" s="1">
@@ -3684,7 +3731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D60" s="1" t="s">
         <v>37</v>
       </c>
@@ -3692,8 +3739,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D61" s="5" t="s">
+    <row r="61" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D61" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E61" s="1">
@@ -3701,7 +3748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D62" s="1" t="s">
         <v>31</v>
       </c>
@@ -3709,8 +3756,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D63" s="5" t="s">
+    <row r="63" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="1">
@@ -3718,24 +3765,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D64" s="3" t="s">
+    <row r="64" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D64" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E64" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D65" s="3" t="s">
+    <row r="65" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D65" s="2" t="s">
         <v>61</v>
       </c>
       <c r="E65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D66" s="5" t="s">
+    <row r="66" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D66" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E66" s="1">
@@ -3743,31 +3790,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D67" s="3" t="s">
+    <row r="67" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D67" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D68" s="3" t="s">
+    <row r="68" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D69" s="3" t="s">
+    <row r="69" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D69" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" s="1" t="s">
         <v>28</v>
       </c>
@@ -3775,8 +3822,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D71" s="5" t="s">
+    <row r="71" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D71" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E71" s="1">
@@ -3784,7 +3831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="72" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D72" s="1" t="s">
         <v>49</v>
       </c>
@@ -3792,8 +3839,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D73" s="5" t="s">
+    <row r="73" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D73" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E73" s="1">
@@ -3801,7 +3848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="74" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D74" s="1" t="s">
         <v>42</v>
       </c>
@@ -3809,8 +3856,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D75" s="5" t="s">
+    <row r="75" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D75" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E75" s="1">
@@ -3818,24 +3865,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D76" s="3" t="s">
+    <row r="76" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D76" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E76" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D77" s="3" t="s">
+    <row r="77" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D77" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D78" s="5" t="s">
+    <row r="78" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D78" s="4" t="s">
         <v>69</v>
       </c>
       <c r="E78" s="1">
@@ -3843,16 +3890,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D79" s="3" t="s">
+    <row r="79" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D79" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E79" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D80" s="5" t="s">
+    <row r="80" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D80" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E80" s="1">
@@ -3860,7 +3907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" s="1" t="s">
         <v>14</v>
       </c>
@@ -3868,8 +3915,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D82" s="5" t="s">
+    <row r="82" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D82" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E82" s="1">
@@ -3877,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" s="1" t="s">
         <v>18</v>
       </c>
@@ -3885,8 +3932,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D84" s="5" t="s">
+    <row r="84" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D84" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E84" s="1">
@@ -3894,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D85" s="1" t="s">
         <v>16</v>
       </c>
@@ -3902,8 +3949,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D86" s="5" t="s">
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E86" s="1">
@@ -3911,7 +3958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.15">
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D87" s="1" t="s">
         <v>8</v>
       </c>
@@ -3919,8 +3966,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D88" s="5" t="s">
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E88" s="1">
@@ -3928,88 +3975,88 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D89" s="3" t="s">
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D90" s="3" t="s">
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D91" s="3" t="s">
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D92" s="3" t="s">
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D93" s="3" t="s">
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E93" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D94" s="3" t="s">
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D95" s="3" t="s">
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E95" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D96" s="3" t="s">
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E96" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D97" s="3" t="s">
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E97" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D98" s="3" t="s">
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E98" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D99" s="5" t="s">
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E99" s="1">
@@ -4017,24 +4064,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D100" s="3" t="s">
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E100" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D101" s="3" t="s">
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.15">
-      <c r="D102" s="5" t="s">
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E102" s="1">
@@ -4043,7 +4090,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4056,196 +4103,196 @@
       <selection activeCell="D26" sqref="D25:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
     <col min="4" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B6" s="6" t="s">
+      <c r="C5" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+      <c r="C7" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C8" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C9" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B11" s="8" t="s">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B12" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B14" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B19" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B20" s="8"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B21" s="8" t="s">
+      <c r="C19" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C22" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B22" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B24" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B25" s="8" t="s">
-        <v>276</v>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B26" s="8" t="s">
-        <v>277</v>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -4259,493 +4306,493 @@
       <selection activeCell="M37" sqref="M37:O57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.25" customWidth="1"/>
-    <col min="6" max="6" width="30.75" customWidth="1"/>
+    <col min="2" max="2" width="29.26953125" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
         <v>279</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>280</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E9">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>345</v>
+      <c r="B10" s="7" t="s">
+        <v>344</v>
       </c>
       <c r="E10">
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E11">
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12">
         <v>8</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="8">
+      <c r="F12" s="7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="8">
+      <c r="F13" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E14">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E15">
         <v>11</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="8">
+      <c r="F15" s="7" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E16">
         <v>12</v>
       </c>
-      <c r="F16" s="8" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="8">
+      <c r="F16" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E17">
         <v>13</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="8">
+      <c r="F17" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>14</v>
       </c>
       <c r="B18" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="8">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="8">
-        <v>16</v>
-      </c>
-      <c r="B20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>319</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="H37" s="21"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
       <c r="B38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E38">
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>320</v>
-      </c>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+        <v>319</v>
+      </c>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E39">
         <v>3</v>
       </c>
       <c r="F39" t="s">
-        <v>321</v>
-      </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+        <v>320</v>
+      </c>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
       <c r="B40" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E40">
         <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>322</v>
-      </c>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+        <v>321</v>
+      </c>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E41">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>323</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E42">
         <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>324</v>
-      </c>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E43">
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>325</v>
-      </c>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+        <v>324</v>
+      </c>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E44">
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
-      </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+        <v>325</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E45">
         <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>327</v>
-      </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+        <v>326</v>
+      </c>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E46">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>328</v>
-      </c>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E47">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>329</v>
-      </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+        <v>328</v>
+      </c>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E48">
         <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>330</v>
-      </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+        <v>329</v>
+      </c>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E49">
         <v>13</v>
       </c>
       <c r="F49" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+        <v>330</v>
+      </c>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
       <c r="B50" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E50">
         <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
-      </c>
-      <c r="G50" s="21"/>
-      <c r="H50" s="21"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+        <v>331</v>
+      </c>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E51">
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
-      </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+        <v>332</v>
+      </c>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E52">
         <v>16</v>
       </c>
       <c r="F52" t="s">
-        <v>334</v>
-      </c>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
+        <v>333</v>
+      </c>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E53">
         <v>17</v>
       </c>
       <c r="F53" t="s">
-        <v>335</v>
-      </c>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
+        <v>334</v>
+      </c>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -4753,12 +4800,12 @@
         <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>336</v>
-      </c>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
+        <v>335</v>
+      </c>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -4766,38 +4813,38 @@
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>337</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
+        <v>336</v>
+      </c>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>20</v>
       </c>
       <c r="F56" t="s">
-        <v>338</v>
-      </c>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="G59" s="21"/>
-      <c r="H59" s="21"/>
+        <v>337</v>
+      </c>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="G37:H59"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4811,61 +4858,61 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="8" t="s">
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D5" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D7" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>149</v>
+      <c r="D8" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4878,455 +4925,455 @@
       <selection activeCell="F22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="10" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="B3" t="s">
         <v>166</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>167</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>168</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
         <v>170</v>
       </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>173</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="B7" t="s">
         <v>175</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>176</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>177</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
         <v>179</v>
       </c>
-      <c r="B8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>180</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
+      <c r="B9" t="s">
         <v>182</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>183</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>184</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
         <v>186</v>
       </c>
-      <c r="B10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>187</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="10" t="s">
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
         <v>189</v>
       </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>190</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="10" t="s">
+      <c r="B12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="11" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="B13" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="11" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="B14" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="B16" t="s">
         <v>199</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>200</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>201</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
         <v>203</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" t="s">
         <v>200</v>
       </c>
-      <c r="C17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="D18" t="s">
         <v>205</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
         <v>200</v>
       </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="D19" t="s">
         <v>207</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
         <v>200</v>
       </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="D20" t="s">
         <v>209</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
         <v>200</v>
       </c>
-      <c r="C20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="D21" t="s">
         <v>211</v>
       </c>
-      <c r="B21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" t="s">
         <v>213</v>
       </c>
-      <c r="B22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>214</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="10" t="s">
+      <c r="B25" t="s">
         <v>218</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="10" t="s">
+      <c r="B26" t="s">
         <v>220</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="B27" t="s">
         <v>222</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>223</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>224</v>
       </c>
-      <c r="D27" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="B28" t="s">
         <v>226</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>227</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="B29" t="s">
         <v>230</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>231</v>
       </c>
-      <c r="C29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="B30" t="s">
         <v>233</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C30" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="B31" t="s">
         <v>235</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="B32" t="s">
         <v>237</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>238</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D32" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="B33" t="s">
         <v>240</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D33" t="s">
         <v>241</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="B34" t="s">
         <v>243</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="9"/>
+      <c r="B35" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="10"/>
-      <c r="B35" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="9" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B37" t="s">
-        <v>247</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="15" t="s">
-        <v>354</v>
+      <c r="C37" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>353</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>374</v>
+        <v>246</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -5336,373 +5383,373 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF893BE-78B0-4230-AFD6-638AD91D5B68}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.125" customWidth="1"/>
-    <col min="2" max="2" width="15.125" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
-    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="4" width="19.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="17"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="D2" s="17" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="17" t="s">
+      <c r="B3" t="s">
         <v>166</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>167</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>168</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="17" t="s">
+      <c r="B4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
         <v>170</v>
       </c>
-      <c r="B4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="17" t="s">
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>173</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+      <c r="B7" t="s">
         <v>175</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>176</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>177</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="17" t="s">
+      <c r="B8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" t="s">
         <v>179</v>
       </c>
-      <c r="B8" t="s">
-        <v>176</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>180</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="17" t="s">
+      <c r="B9" t="s">
         <v>182</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>183</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>184</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="B10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" t="s">
         <v>186</v>
       </c>
-      <c r="B10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>187</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="17" t="s">
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11" t="s">
         <v>189</v>
       </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>190</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="17" t="s">
+      <c r="B12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="D12" s="11" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="17" t="s">
+      <c r="B13" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C13" t="s">
         <v>195</v>
       </c>
-      <c r="B13" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D13" s="11" t="s">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="17" t="s">
+      <c r="B14" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="B16" t="s">
         <v>199</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>200</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>201</v>
       </c>
-      <c r="D16" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="17" t="s">
+      <c r="B17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
         <v>203</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="B18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" t="s">
         <v>200</v>
       </c>
-      <c r="C17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="D18" t="s">
         <v>205</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
         <v>200</v>
       </c>
-      <c r="C18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="D19" t="s">
         <v>207</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="B20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
         <v>200</v>
       </c>
-      <c r="C19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="D20" t="s">
         <v>209</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B21" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
         <v>200</v>
       </c>
-      <c r="C20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="17" t="s">
+      <c r="D21" t="s">
         <v>211</v>
       </c>
-      <c r="B21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C21" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="17" t="s">
+      <c r="B22" t="s">
+        <v>199</v>
+      </c>
+      <c r="C22" t="s">
         <v>213</v>
       </c>
-      <c r="B22" t="s">
-        <v>200</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>214</v>
       </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>215</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="17" t="s">
-        <v>216</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D23" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B25" t="s">
         <v>226</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>227</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>228</v>
       </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
+      <c r="B26" t="s">
         <v>230</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>231</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="17" t="s">
+      <c r="B27" t="s">
         <v>233</v>
       </c>
-      <c r="B27" t="s">
-        <v>234</v>
-      </c>
       <c r="C27" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>247</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="16" t="s">
-        <v>354</v>
+        <v>246</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>353</v>
       </c>
       <c r="B29" t="s">
-        <v>247</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>374</v>
+        <v>246</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
